--- a/BalanceSheet/XRAY_bal.xlsx
+++ b/BalanceSheet/XRAY_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>50200000.0</v>
+        <v>466000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>74800000.0</v>
+        <v>489000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>56300000.0</v>
+        <v>549000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-57300000.0</v>
+        <v>591000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>62100000.0</v>
+        <v>562000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>605100000.0</v>
@@ -1874,19 +1874,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>41700000.0</v>
+        <v>305000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>24000000.0</v>
+        <v>243000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-59800000.0</v>
+        <v>214000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-28900000.0</v>
+        <v>271000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>56600000.0</v>
+        <v>308000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>246300000.0</v>
@@ -2878,19 +2878,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-11300000.0</v>
+        <v>384000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-20300000.0</v>
+        <v>423000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-24300000.0</v>
+        <v>439000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-8100000.0</v>
+        <v>465000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2500000.0</v>
+        <v>467000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>500700000.0</v>
